--- a/va_facility_data_2025-02-20/Mena VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mena%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Mena VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Mena%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R03e4260762ec4319b1ce73315157e221"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd5442948d6e54ce09c40d2b230d6ca9c"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R411d2e44f13e4af5a59fe3197b244ae6"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R05d68a7b4414476cbc027b2f2854c6f6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rfc3a2807d04c4f258e7d94a4539e04e9"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R75384de7c7884195adf4350bb50537fb"/>
   </x:sheets>
 </x:workbook>
 </file>
